--- a/predictions/hybrid_predictions.xlsx
+++ b/predictions/hybrid_predictions.xlsx
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6687857710168585</v>
+        <v>0.6260102880529633</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4711356536542998</v>
+        <v>0.3541428331643913</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7217459598415884</v>
+        <v>0.679786453153583</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5872613238073561</v>
+        <v>0.4986321910239432</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3109679007272927</v>
+        <v>0.4223807412409279</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7391809443615177</v>
+        <v>0.7062903966157175</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5656379004920921</v>
+        <v>0.5459168673440993</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.272742888585478</v>
+        <v>0.3137614743579401</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4931383180327652</v>
+        <v>0.4780994288015241</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2955846821632486</v>
+        <v>0.3508560201085118</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3021530973111744</v>
+        <v>0.4195763179118504</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7304209578070401</v>
+        <v>0.7143835820507201</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7499855519082489</v>
+        <v>0.5371074731704304</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7380669255428048</v>
+        <v>0.6091842103336705</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3583563528863021</v>
+        <v>0.4142718674571033</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.716989790709348</v>
+        <v>0.678384174770905</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7229286094862204</v>
+        <v>0.6043942648274618</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4295367568639546</v>
+        <v>0.5763493757467612</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3414182238251484</v>
+        <v>0.4405107685376133</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2855794664340915</v>
+        <v>0.4022043166551263</v>
       </c>
     </row>
     <row r="22">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5504182338959249</v>
+        <v>0.498489480808465</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6529895483757496</v>
+        <v>0.6333580243952991</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6282973765770271</v>
+        <v>0.4346929416979716</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4787689580275343</v>
+        <v>0.5957396472105976</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7141030581125666</v>
+        <v>0.7167864482887295</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3241611001311733</v>
+        <v>0.3028307437312055</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7055495550987378</v>
+        <v>0.5640891306221512</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2975210517706325</v>
+        <v>0.3562952915245866</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6649285876490112</v>
+        <v>0.5516865963826384</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5820417785519215</v>
+        <v>0.5798070832243011</v>
       </c>
     </row>
     <row r="32">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5096489346494226</v>
+        <v>0.4999938270853297</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.436529209309513</v>
+        <v>0.4892916420992158</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6630730284445541</v>
+        <v>0.7216873612678408</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6427955585825249</v>
+        <v>0.5737616424322874</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3364302747337046</v>
+        <v>0.4711000822257232</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7187982676894856</v>
+        <v>0.6526260348467665</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6884972975589694</v>
+        <v>0.5912504099833619</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7421752261572383</v>
+        <v>0.6618911604902618</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7402623717381077</v>
+        <v>0.6990647244019231</v>
       </c>
     </row>
     <row r="41">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4952383132279673</v>
+        <v>0.6084400649470929</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7561616161493705</v>
+        <v>0.5090362921898108</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7401207624313602</v>
+        <v>0.539152677276871</v>
       </c>
     </row>
     <row r="44">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.44431254942228</v>
+        <v>0.5674482865947662</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3164108605775954</v>
+        <v>0.4359300577359477</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5371005171539063</v>
+        <v>0.6442761949792856</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6259669684500689</v>
+        <v>0.536265694211266</v>
       </c>
     </row>
     <row r="48">
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.413466613069763</v>
+        <v>0.5340428357068283</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5448339875323378</v>
+        <v>0.5129239904461157</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3988072165027801</v>
+        <v>0.4704472608223459</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5888719494848339</v>
+        <v>0.6248170270389944</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266300140886748</v>
+        <v>0.3137539086539305</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7248319351598306</v>
+        <v>0.6189485826895802</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.528693685494999</v>
+        <v>0.633963277300522</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2685617016314296</v>
+        <v>0.3312994607613299</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3592918459001357</v>
+        <v>0.4956921585003743</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3618700539434135</v>
+        <v>0.456294799912472</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6314134708927237</v>
+        <v>0.6424620692710761</v>
       </c>
     </row>
     <row r="59">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5387354568478568</v>
+        <v>0.4066792766240554</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7242376037453188</v>
+        <v>0.6464608402776206</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6186779353793165</v>
+        <v>0.5302003615961089</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7276193790007637</v>
+        <v>0.6956237122153737</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4832939826037327</v>
+        <v>0.4952512695307403</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3929054570234768</v>
+        <v>0.3863297190865318</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2646448858600939</v>
+        <v>0.3570019636339106</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7439221842326245</v>
+        <v>0.5545425254074483</v>
       </c>
     </row>
     <row r="67">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5525130997386349</v>
+        <v>0.4980158376756523</v>
       </c>
     </row>
     <row r="68">
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.47425256358415</v>
+        <v>0.5007556900739473</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6762233955671171</v>
+        <v>0.5862153277618886</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2731436337302373</v>
+        <v>0.3356683018530139</v>
       </c>
     </row>
     <row r="71">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3395688651408144</v>
+        <v>0.5013643205764443</v>
       </c>
     </row>
     <row r="72">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3682307424350588</v>
+        <v>0.5002903240965598</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6501383790822107</v>
+        <v>0.5432051249583271</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.378548673584237</v>
+        <v>0.373331320770628</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3274061405942617</v>
+        <v>0.3877931438908669</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2629214496907065</v>
+        <v>0.3585776163144284</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7372732148126622</v>
+        <v>0.5061076558188958</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7361040493820605</v>
+        <v>0.6171779257778169</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3232796947082199</v>
+        <v>0.4410681770014703</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/hybrid_predictions.xlsx
+++ b/predictions/hybrid_predictions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,73 +458,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6260102880529633</v>
+        <v>0.5266056881609831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3541428331643913</v>
+        <v>0.3342418738367111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679786453153583</v>
+        <v>0.5940156996838233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4986321910239432</v>
+        <v>0.5434213806902943</v>
       </c>
     </row>
     <row r="6">
@@ -535,146 +535,146 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4223807412409279</v>
+        <v>0.3469753897052155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7062903966157175</v>
+        <v>0.6290444468262024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5459168673440993</v>
+        <v>0.4991930987061068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3137614743579401</v>
+        <v>0.6184805865518875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4780994288015241</v>
+        <v>0.4545152836040064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3508560201085118</v>
+        <v>0.572840124713757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4195763179118504</v>
+        <v>0.5940424469197171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7143835820507201</v>
+        <v>0.3215373011241122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -686,67 +686,67 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5371074731704304</v>
+        <v>0.6391100149819973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Pittsburgh Steelers</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6091842103336705</v>
+        <v>0.5323550541504208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4142718674571033</v>
+        <v>0.3099266977163068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.678384174770905</v>
+        <v>0.388311957202095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6043942648274618</v>
+        <v>0.3693368164126837</v>
       </c>
     </row>
     <row r="19">
@@ -769,218 +769,218 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5763493757467612</v>
+        <v>0.3183258319012441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4405107685376133</v>
+        <v>0.3986410086458332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4022043166551263</v>
+        <v>0.56985892274828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Baltimore Ravens</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.498489480808465</v>
+        <v>0.6146087392961297</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6333580243952991</v>
+        <v>0.5948189006265123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4346929416979716</v>
+        <v>0.5390508899850042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5957396472105976</v>
+        <v>0.5249431520004431</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7167864482887295</v>
+        <v>0.4436311784013317</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3028307437312055</v>
+        <v>0.4030701350139692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5640891306221512</v>
+        <v>0.3543403719944469</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3562952915245866</v>
+        <v>0.5963123595415971</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5516865963826384</v>
+        <v>0.5469726703836214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -992,277 +992,277 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5798070832243011</v>
+        <v>0.5783203333632624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4999938270853297</v>
+        <v>0.5968313871379957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4892916420992158</v>
+        <v>0.3297992351559849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7216873612678408</v>
+        <v>0.335302665437183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5737616424322874</v>
+        <v>0.6725483897455958</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4711000822257232</v>
+        <v>0.4415094411072317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6526260348467665</v>
+        <v>0.6245236298690433</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5912504099833619</v>
+        <v>0.6106244496803057</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6618911604902618</v>
+        <v>0.3719540856263066</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6990647244019231</v>
+        <v>0.59819274884975</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6084400649470929</v>
+        <v>0.6210400743418405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5090362921898108</v>
+        <v>0.477143126629755</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.539152677276871</v>
+        <v>0.6708243593758483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5674482865947662</v>
+        <v>0.5900457459656869</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4359300577359477</v>
+        <v>0.3836716512577527</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6442761949792856</v>
+        <v>0.6266455193851288</v>
       </c>
     </row>
     <row r="47">
@@ -1273,590 +1273,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536265694211266</v>
+        <v>0.471510347732919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5340428357068283</v>
+        <v>0.4823415745825901</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5129239904461157</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4704472608223459</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6248170270389944</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.3137539086539305</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.6189485826895802</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.633963277300522</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3312994607613299</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4956921585003743</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.456294799912472</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.6424620692710761</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4066792766240554</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.6464608402776206</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5302003615961089</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.6956237122153737</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.4952512695307403</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.3863297190865318</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.3570019636339106</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5545425254074483</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.4980158376756523</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.5007556900739473</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.5862153277618886</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.3356683018530139</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.5013643205764443</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.5002903240965598</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.5432051249583271</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.373331320770628</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.3877931438908669</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.3585776163144284</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.5061076558188958</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.6171779257778169</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4410681770014703</v>
+        <v>0.6745735879415197</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/hybrid_predictions.xlsx
+++ b/predictions/hybrid_predictions.xlsx
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5266056881609831</v>
+        <v>0.5061865278691161</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3342418738367111</v>
+        <v>0.285254186739531</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5940156996838233</v>
+        <v>0.4066244996036203</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5434213806902943</v>
+        <v>0.334839697973324</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3469753897052155</v>
+        <v>0.2851706269867384</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6290444468262024</v>
+        <v>0.6561830178676972</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4991930987061068</v>
+        <v>0.3132137953446109</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6184805865518875</v>
+        <v>0.4707068870421452</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4545152836040064</v>
+        <v>0.3442388589541159</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.572840124713757</v>
+        <v>0.6594134689891749</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5940424469197171</v>
+        <v>0.5607308807961117</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3215373011241122</v>
+        <v>0.4309928922501575</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6391100149819973</v>
+        <v>0.754742643802558</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5323550541504208</v>
+        <v>0.676947843220277</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3099266977163068</v>
+        <v>0.2990349665790054</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.388311957202095</v>
+        <v>0.4344026008854314</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3693368164126837</v>
+        <v>0.3441866172563843</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3183258319012441</v>
+        <v>0.3340558046887701</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3986410086458332</v>
+        <v>0.3973583570344865</v>
       </c>
     </row>
     <row r="21">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.56985892274828</v>
+        <v>0.4800284657417949</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6146087392961297</v>
+        <v>0.7186372509269419</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5948189006265123</v>
+        <v>0.2963391473341788</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5390508899850042</v>
+        <v>0.3697516838353506</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5249431520004431</v>
+        <v>0.3558370735052496</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4436311784013317</v>
+        <v>0.4307276344560493</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4030701350139692</v>
+        <v>0.4141562170280294</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3543403719944469</v>
+        <v>0.3407227340678441</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5963123595415971</v>
+        <v>0.4153108717673581</v>
       </c>
     </row>
     <row r="30">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5469726703836214</v>
+        <v>0.4811360996897946</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5783203333632624</v>
+        <v>0.5720585528692237</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5968313871379957</v>
+        <v>0.5884682227738453</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3297992351559849</v>
+        <v>0.2944547764319218</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335302665437183</v>
+        <v>0.2896306462791369</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6725483897455958</v>
+        <v>0.7347571437876892</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4415094411072317</v>
+        <v>0.326690411517926</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6245236298690433</v>
+        <v>0.6323375930328625</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6106244496803057</v>
+        <v>0.6256916101200154</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3719540856263066</v>
+        <v>0.3126862779048019</v>
       </c>
     </row>
     <row r="40">
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.59819274884975</v>
+        <v>0.4796859488182399</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6210400743418405</v>
+        <v>0.5538527614336057</v>
       </c>
     </row>
     <row r="42">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.477143126629755</v>
+        <v>0.5642785180876689</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6708243593758483</v>
+        <v>0.7315973348712407</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5900457459656869</v>
+        <v>0.6770118392654273</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3836716512577527</v>
+        <v>0.356595899209315</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6266455193851288</v>
+        <v>0.733078730766656</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.471510347732919</v>
+        <v>0.4872543923041986</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4823415745825901</v>
+        <v>0.4428331428981567</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6745735879415197</v>
+        <v>0.7602541417771941</v>
       </c>
     </row>
   </sheetData>
